--- a/doc/Listado de paginas.xlsx
+++ b/doc/Listado de paginas.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="195" windowWidth="22725" windowHeight="8445"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28740" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -571,306 +576,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="33.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:7">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -880,9 +890,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -892,8 +907,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/Listado de paginas.xlsx
+++ b/doc/Listado de paginas.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="28740" windowHeight="17540"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28280" windowHeight="16380"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Site Map 2" sheetId="4" r:id="rId1"/>
+    <sheet name="Site Map" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
   <si>
     <t>Título de navegación</t>
   </si>
@@ -234,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -246,6 +247,22 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,15 +285,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -576,10 +617,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G32"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B3:B18 E3:E17" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G33"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -591,307 +887,290 @@
     <col min="7" max="7" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="C1" s="1" t="s">
+    <row r="2" spans="2:7">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
         <v>45</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -916,4 +1195,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>